--- a/merlin-app/test/templates/LetterTemplate.xlsx
+++ b/merlin-app/test/templates/LetterTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/workspace/Java/merlin/merlin-app/test/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AB5C92-F0D0-6343-8016-9E7A758D6F39}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A638A77D-C5B5-E84B-83D9-66B6546904E7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24460" yWindow="10680" windowWidth="21660" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="460" windowWidth="27080" windowHeight="19920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -105,9 +105,6 @@
     <t>Id</t>
   </si>
   <si>
-    <t>JZpnpojeSuN5JDqtm9KZ</t>
-  </si>
-  <si>
     <t>Here all variables are defined which the user can customize. These variables are usable inside the MS Word® template files.
 Please modify this sheet only if you know what you're doing!
 It's recommended to refer the Merlin application for modifying template configurations.</t>
@@ -126,9 +123,6 @@
 It's recommended to refer the Merlin application for modifying template configurations.</t>
   </si>
   <si>
-    <t>Letter</t>
-  </si>
-  <si>
     <t>Receiver</t>
   </si>
   <si>
@@ -139,6 +133,12 @@
   </si>
   <si>
     <t>Receiver_City</t>
+  </si>
+  <si>
+    <t>Letter-Template</t>
+  </si>
+  <si>
+    <t>9MJdzFN2v2PKMJ9erj59</t>
   </si>
 </sst>
 </file>
@@ -214,6 +214,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -221,8 +223,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -556,28 +556,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="A2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -627,7 +627,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -692,7 +692,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -723,7 +723,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -733,20 +733,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="A2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -789,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -801,26 +801,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="A2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -835,7 +835,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
